--- a/nest-admin/public/fileList/aa/aa.xlsx
+++ b/nest-admin/public/fileList/aa/aa.xlsx
@@ -1152,9 +1152,102 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+    </row>
     <row r="3" ht="14.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
       <c r="C3">
         <v>123</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
